--- a/static/template/import/导入模板.xlsx
+++ b/static/template/import/导入模板.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\code\AdminTemplate\CarefulyAdmin\carefuly-admin-go-gin\static\template\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0B88F3-29ED-41F5-A174-B57EB462D75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A6C6A5-0F80-4EE9-908A-BF05C900C5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="字典模板" sheetId="1" r:id="rId1"/>
+    <sheet name="字典信息模板" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">字典模板!$C$1:$C$17</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="119">
   <si>
     <t>字典类型</t>
   </si>
@@ -268,6 +270,218 @@
       </rPr>
       <t>字典类型值</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典信息名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>系统字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否类型</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不男不女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅本人数据权限</t>
+  </si>
+  <si>
+    <t>本部门数据权限</t>
+  </si>
+  <si>
+    <t>本部门及以下数据权限</t>
+  </si>
+  <si>
+    <t>全部数据权限</t>
+  </si>
+  <si>
+    <t>自定数据权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🎃 其他</t>
+  </si>
+  <si>
+    <t>🦄 应用程序</t>
+  </si>
+  <si>
+    <t>🎁 压缩包</t>
+  </si>
+  <si>
+    <t>🎵 音频</t>
+  </si>
+  <si>
+    <t>📺️ 视频</t>
+  </si>
+  <si>
+    <t>📂 文档</t>
+  </si>
+  <si>
+    <t>🎀 图片</t>
+  </si>
+  <si>
+    <t>✨️ 全部</t>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,6 +565,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,11 +865,12 @@
     <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="120.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="120.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -662,11 +883,14 @@
       <c r="D1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -679,11 +903,11 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,11 +920,11 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -713,11 +937,11 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,11 +954,11 @@
       <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -747,11 +971,11 @@
       <c r="D6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -764,11 +988,11 @@
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -781,11 +1005,11 @@
       <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -798,11 +1022,11 @@
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -815,11 +1039,11 @@
       <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -832,11 +1056,11 @@
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -849,11 +1073,11 @@
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -866,11 +1090,11 @@
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -883,11 +1107,11 @@
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -900,11 +1124,11 @@
       <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -917,11 +1141,11 @@
       <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -934,7 +1158,7 @@
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -942,11 +1166,782 @@
   <autoFilter ref="C1:C17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{DC11E5CC-7242-4288-A8E9-393DDD662039}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{68F14C33-18A1-49BB-BA49-4CB782D3CB3A}">
+      <formula1>"普通字典,系统字典,枚举字典"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 D1:D1048576" xr:uid="{DC11E5CC-7242-4288-A8E9-393DDD662039}">
       <formula1>"字符串,整型,布尔"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{68F14C33-18A1-49BB-BA49-4CB782D3CB3A}">
-      <formula1>"普通字典,系统字典,枚举字典"</formula1>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18D830F-3025-4A72-AB77-B08FD2999D0E}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50:C1048576 C1:C6" xr:uid="{45634BC6-7340-4726-81C0-75BFEBE96ECE}">
+      <formula1>-99999</formula1>
+      <formula2>99999</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50:E1048576 E1:E6" xr:uid="{A0DBB414-5816-4E36-9147-40634F8DBD4A}">
+      <formula1>"primary,success,warning,,danger,info"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D6 D50:D1048576" xr:uid="{688DC988-1C81-4E30-A5DC-F829174B5D6F}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0FB5A4-29AE-4464-8300-889EEC29439D}">
+  <dimension ref="A7:I49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="1">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16:B20 E7:E41" xr:uid="{A0DBB414-5816-4E36-9147-40634F8DBD4A}">
+      <formula1>"primary,success,warning,,danger,info"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A36:A41 E42:E49 D7:D49" xr:uid="{688DC988-1C81-4E30-A5DC-F829174B5D6F}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C41" xr:uid="{45634BC6-7340-4726-81C0-75BFEBE96ECE}">
+      <formula1>-99999</formula1>
+      <formula2>99999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
